--- a/data/Simulations/HR1/Shared ESS/HR1_ESS.xlsx
+++ b/data/Simulations/HR1/Shared ESS/HR1_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADA8978-6ED9-4D13-8E7B-E3D8EC84A591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08BA068-B17E-411F-ADEA-E98575EE363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Y1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>32.01</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>33.19</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>30.69</v>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A1099F-A264-470F-B347-ABD6E25D883A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>65.2</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>65.2</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>65.2</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>65.69</v>

--- a/data/Simulations/HR1/Shared ESS/HR1_ESS.xlsx
+++ b/data/Simulations/HR1/Shared ESS/HR1_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08BA068-B17E-411F-ADEA-E98575EE363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380C730F-DAD9-405D-9656-6540A7BD2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628D1B4-1FDD-45B3-A6A0-6FB0513B38AF}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,76 +663,76 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>32.01</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>30.75</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>30.75</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>30.75</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>50.5</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>44.44</v>
-      </c>
-      <c r="X2" s="2">
-        <v>42.42</v>
-      </c>
-      <c r="Y2" s="2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.6242969628796401E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -740,153 +740,153 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>36.19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30.03</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30.03</v>
-      </c>
-      <c r="H3" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44.9</v>
-      </c>
-      <c r="J3" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="N3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="O3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="T3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="W3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="X3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>33.19</v>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.10142857142857142</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>31.67</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="I4" s="2">
-        <v>35.19</v>
-      </c>
-      <c r="J4" s="2">
-        <v>35.19</v>
-      </c>
-      <c r="K4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="L4" s="2">
-        <v>54.7</v>
-      </c>
-      <c r="M4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="N4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="O4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="P4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="U4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="V4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>40.69</v>
-      </c>
-      <c r="Y4" s="2">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.12174439733494852</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6.8917987594762232E-4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.1098779134295228E-3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -894,154 +894,154 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="D5" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="E5" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="P5" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="R5" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>30.69</v>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="C6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="E6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="F6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="H6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="I6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="J6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="K6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="L6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="M6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="N6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="O6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="X6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>30.69</v>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.13311688311688311</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.20136986301369864</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A1099F-A264-470F-B347-ABD6E25D883A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,385 +1140,385 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>55.69</v>
-      </c>
-      <c r="D2" s="2">
-        <v>55.69</v>
-      </c>
-      <c r="E2" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>48.4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>55.69</v>
-      </c>
-      <c r="I2" s="2">
-        <v>99</v>
-      </c>
-      <c r="J2" s="2">
-        <v>99</v>
-      </c>
-      <c r="K2" s="2">
-        <v>99</v>
-      </c>
-      <c r="L2" s="2">
-        <v>48.4</v>
-      </c>
-      <c r="M2" s="2">
-        <v>99</v>
-      </c>
-      <c r="N2" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="O2" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>99</v>
-      </c>
-      <c r="S2" s="2">
-        <v>70.03</v>
-      </c>
-      <c r="T2" s="2">
-        <v>99</v>
-      </c>
-      <c r="U2" s="2">
-        <v>99</v>
-      </c>
-      <c r="V2" s="2">
-        <v>51</v>
-      </c>
-      <c r="W2" s="2">
-        <v>75.75</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>51</v>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.8148820326678765E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.2172949002217295E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.2172949002217295E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>46.48</v>
-      </c>
-      <c r="D3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="E3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="F3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="G3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="H3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="I3" s="2">
-        <v>70.03</v>
-      </c>
-      <c r="J3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="K3" s="2">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2">
-        <v>55.68</v>
-      </c>
-      <c r="M3" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="O3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="P3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="R3" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="S3" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>98</v>
-      </c>
-      <c r="U3" s="2">
-        <v>97</v>
-      </c>
-      <c r="V3" s="2">
-        <v>59</v>
-      </c>
-      <c r="W3" s="2">
-        <v>66</v>
-      </c>
-      <c r="X3" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>97</v>
+      <c r="B3" s="1">
+        <v>0.59602649006622521</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.6638935108153079E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2484394506866417E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.362776025236593E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.12609238451935081</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.2484394506866417E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.38615384615384618</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.10357142857142858</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="E4" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="F4" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="G4" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="H4" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="I4" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="J4" s="2">
-        <v>54.54</v>
-      </c>
-      <c r="K4" s="2">
-        <v>51</v>
-      </c>
-      <c r="L4" s="2">
-        <v>51</v>
-      </c>
-      <c r="M4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="R4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="S4" s="2">
-        <v>46</v>
-      </c>
-      <c r="T4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="U4" s="2">
-        <v>98</v>
-      </c>
-      <c r="V4" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="W4" s="2">
-        <v>66</v>
-      </c>
-      <c r="X4" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>46</v>
+      <c r="B4" s="1">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.16285714285714287</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.3428571428571426E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45.4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="H5" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="I5" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="J5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="P5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>65.2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="S5" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="T5" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="U5" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="V5" s="2">
-        <v>45.4</v>
-      </c>
-      <c r="W5" s="2">
-        <v>45.4</v>
-      </c>
-      <c r="X5" s="2">
-        <v>45.4</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79798657718120802</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.19461538461538461</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="C6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="D6" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="E6" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="F6" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="G6" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="H6" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="I6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="J6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="K6" s="2">
-        <v>57.69</v>
-      </c>
-      <c r="L6" s="2">
-        <v>57.69</v>
-      </c>
-      <c r="M6" s="2">
-        <v>57.69</v>
-      </c>
-      <c r="N6" s="2">
-        <v>57.69</v>
-      </c>
-      <c r="O6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="P6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="R6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="S6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="T6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="U6" s="2">
-        <v>51.4</v>
-      </c>
-      <c r="V6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="W6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="X6" s="2">
-        <v>65.69</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>65.69</v>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>8.3263946711074107E-4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Simulations/HR1/Shared ESS/HR1_ESS.xlsx
+++ b/data/Simulations/HR1/Shared ESS/HR1_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380C730F-DAD9-405D-9656-6540A7BD2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C2D96-E775-4766-AC8D-BD312F038A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,22 @@
     <sheet name="Investment Cost" sheetId="5" r:id="rId3"/>
     <sheet name="DownActivation, 2020, Winter" sheetId="2" r:id="rId4"/>
     <sheet name="UpActivation, 2020, Winter" sheetId="3" r:id="rId5"/>
+    <sheet name="DownActivation, 2020, Summer" sheetId="12" r:id="rId6"/>
+    <sheet name="UpActivation, 2020, Summer" sheetId="13" r:id="rId7"/>
+    <sheet name="DownActivation, 2030, Winter" sheetId="14" r:id="rId8"/>
+    <sheet name="UpActivation, 2030, Winter" sheetId="15" r:id="rId9"/>
+    <sheet name="DownActivation, 2030, Summer" sheetId="16" r:id="rId10"/>
+    <sheet name="UpActivation, 2030, Summer" sheetId="17" r:id="rId11"/>
+    <sheet name="DownActivation, 2040, Winter" sheetId="20" r:id="rId12"/>
+    <sheet name="UpActivation, 2040, Winter" sheetId="21" r:id="rId13"/>
+    <sheet name="DownActivation, 2040, Summer" sheetId="18" r:id="rId14"/>
+    <sheet name="UpActivation, 2040, Summer" sheetId="19" r:id="rId15"/>
+    <sheet name="DownActivation, 2050, Winter" sheetId="22" r:id="rId16"/>
+    <sheet name="UpActivation, 2050, Winter" sheetId="23" r:id="rId17"/>
+    <sheet name="DownActivation, 2050, Summer" sheetId="24" r:id="rId18"/>
+    <sheet name="UpActivation, 2050, Summer" sheetId="25" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>numScenarios</t>
   </si>
@@ -383,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +408,7 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,11 +417,4793 @@
       </c>
       <c r="C1" s="1">
         <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC2601-B035-4F70-B83B-D9D46B1085E8}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.8890920170627667E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8.8714938030006518E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.11325301204819277</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.38476070528967254</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.45211267605633804</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.17456896551724138</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.78671328671328666</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.43651753325272069</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.66079812206572774</v>
+      </c>
+      <c r="W2" s="1">
+        <v>6.3466334164588523E-2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.315379163713678E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>6.1099796334012219E-2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.61351052048726462</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.23845007451564829</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.11524163568773234</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.13543191800878476</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9.9419448476052247E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.30223880597014924</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.35873287671232879</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.4193548387096771E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.3373983739837397E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7303EBF6-3670-4A78-94B7-767ED86B6E0F}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.6910656620021529E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5025025025025027E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1133250311332503E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3.6249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.23448275862068965</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.9561815336463225E-2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.5673981191222569E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.8404907975460124E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17066666666666666</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.458515283842795E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.7736720554272515E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.22867513611615245</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.8148820326678765E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.4265335235378032E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.33288948069241014</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.14533333333333334</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.4582104228121928E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.0139616055846421E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.4175334323922731E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FB7E3-4FAF-40E7-9335-5E7F9D1B4838}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.55683563748079878</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.16108247422680413</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.16777629826897469</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>5.0420168067226892E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.58677685950413228</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4.0551500405515001E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>9.2250922509225092E-2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.13289036544850499</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.0354131534569982E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.30604982206405695</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0FE164-C87B-4A2B-A909-377766E8347D}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.6505190311418678E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.8967971530249115E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.8967971530249115E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.22660098522167488</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.12993762993762994</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.15611814345991562</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.33127572016460904</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17040816326530611</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.29487179487179488</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.38477366255144035</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4.6315789473684213E-2</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.15090909090909091</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2246740220661986</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.24154025670945156</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.5833333333333335E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB8E86D-C026-4655-979A-13255DE548AB}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.8890920170627667E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8.8714938030006518E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.11325301204819277</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.38476070528967254</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.45211267605633804</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.17456896551724138</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.78671328671328666</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.43651753325272069</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.66079812206572774</v>
+      </c>
+      <c r="W2" s="1">
+        <v>6.3466334164588523E-2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.315379163713678E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>6.1099796334012219E-2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.61351052048726462</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.23845007451564829</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.11524163568773234</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.13543191800878476</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9.9419448476052247E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.30223880597014924</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.35873287671232879</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.4193548387096771E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.3373983739837397E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB26E89-80C3-4E6D-BDDB-E5345363786A}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.6910656620021529E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5025025025025027E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1133250311332503E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3.6249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.23448275862068965</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.9561815336463225E-2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.5673981191222569E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.8404907975460124E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17066666666666666</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.458515283842795E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.7736720554272515E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.22867513611615245</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.8148820326678765E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.4265335235378032E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.33288948069241014</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.14533333333333334</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.4582104228121928E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.0139616055846421E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.4175334323922731E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5AC318-A00C-4371-93A8-2F16AE9EB854}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.55683563748079878</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.16108247422680413</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.16777629826897469</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>5.0420168067226892E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.58677685950413228</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4.0551500405515001E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>9.2250922509225092E-2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.13289036544850499</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.0354131534569982E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.30604982206405695</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FB5C0A-DBD1-46FC-A0B9-AEE57818C5D9}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.6505190311418678E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.8967971530249115E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.8967971530249115E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.22660098522167488</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.12993762993762994</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.15611814345991562</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.33127572016460904</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17040816326530611</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.29487179487179488</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.38477366255144035</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4.6315789473684213E-2</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.15090909090909091</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2246740220661986</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.24154025670945156</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.5833333333333335E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5592F-3210-40DD-A850-B9EDBF24AEB8}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.8890920170627667E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8.8714938030006518E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.11325301204819277</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.38476070528967254</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.45211267605633804</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.17456896551724138</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.78671328671328666</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.43651753325272069</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.66079812206572774</v>
+      </c>
+      <c r="W2" s="1">
+        <v>6.3466334164588523E-2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.315379163713678E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>6.1099796334012219E-2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.61351052048726462</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.23845007451564829</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.11524163568773234</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.13543191800878476</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9.9419448476052247E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.30223880597014924</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.35873287671232879</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.4193548387096771E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.3373983739837397E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0ED3AA-5224-4E4D-8529-70468265AEFF}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.6910656620021529E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5025025025025027E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1133250311332503E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3.6249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.23448275862068965</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.9561815336463225E-2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.5673981191222569E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.8404907975460124E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17066666666666666</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.458515283842795E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.7736720554272515E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.22867513611615245</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.8148820326678765E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.4265335235378032E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.33288948069241014</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.14533333333333334</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.4582104228121928E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.0139616055846421E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.4175334323922731E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -576,8 +5372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628D1B4-1FDD-45B3-A6A0-6FB0513B38AF}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>5.6242969628796401E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -685,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -718,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>0.55683563748079878</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>0.16108247422680413</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>0.16777629826897469</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -733,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>5.0420168067226892E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -771,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0.10142857142857142</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -792,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>0.58677685950413228</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>4.0551500405515001E-2</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -804,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>9.2250922509225092E-2</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -845,37 +5641,37 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.12174439733494852</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>6.8917987594762232E-4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1.1098779134295228E-3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>0.13289036544850499</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>0.11235955056179775</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -943,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>3.0354131534569982E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>0.30604982206405695</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -984,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.13311688311688311</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.20136986301369864</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1005,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1023,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1054,7 +5850,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,34 +5937,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>8.6505190311418678E-2</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1.8148820326678765E-3</v>
+        <v>8.8967971530249115E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>2.8490028490028491E-3</v>
+        <v>8.8967971530249115E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>2.2172949002217295E-3</v>
+        <v>0.22660098522167488</v>
       </c>
       <c r="G2" s="1">
-        <v>2.2172949002217295E-3</v>
+        <v>0.12993762993762994</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>0.15611814345991562</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>4.9751243781094526E-3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3.3222591362126247E-3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -1210,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>3.4482758620689655E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1218,34 +6014,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.59602649006622521</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1.6638935108153079E-3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1.2484394506866417E-3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>5.362776025236593E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.12609238451935081</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1.2484394506866417E-3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1.996007984031936E-3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -1254,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>0.38615384615384618</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0.38461538461538464</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0.47058823529411764</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -1281,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0.10357142857142858</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.47826086956521741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1295,46 +6091,46 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.26315789473684209</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.25641025641025639</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.16285714285714287</v>
+        <v>0.33127572016460904</v>
       </c>
       <c r="E4" s="1">
-        <v>3.3428571428571426E-2</v>
+        <v>0.17040816326530611</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>0.29487179487179488</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>0.38477366255144035</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -1358,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0.2</v>
+        <v>4.6315789473684213E-2</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1372,34 +6168,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.29032258064516131</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.79798657718120802</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="E5" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>0.15090909090909091</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>0.2246740220661986</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>0.24154025670945156</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>3.5833333333333335E-2</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1426,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0.19461538461538461</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1438,10 +6234,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>5.2777777777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1470,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1485,22 +6281,1930 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>8.3263946711074107E-4</v>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1A605-B034-4301-9B95-FA379F315826}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.8890920170627667E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8.8714938030006518E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.11325301204819277</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.38476070528967254</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.45211267605633804</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.17456896551724138</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.78671328671328666</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.43651753325272069</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.66079812206572774</v>
+      </c>
+      <c r="W2" s="1">
+        <v>6.3466334164588523E-2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.315379163713678E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>6.1099796334012219E-2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.61351052048726462</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.23845007451564829</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.11524163568773234</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.13543191800878476</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9.9419448476052247E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.30223880597014924</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.35873287671232879</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.4193548387096771E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.3373983739837397E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6BEBD0-C421-4C6E-98CD-E92E354FAC31}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.6910656620021529E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5025025025025027E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1133250311332503E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3.6249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.23448275862068965</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.9561815336463225E-2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.5673981191222569E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.8404907975460124E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17066666666666666</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.458515283842795E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5452716297786715E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.7736720554272515E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.22867513611615245</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.8148820326678765E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.4265335235378032E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.33288948069241014</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.14533333333333334</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.4582104228121928E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.0139616055846421E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.4175334323922731E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DE811-CE07-42FA-AE6C-DBAF4973C71B}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.55683563748079878</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.16108247422680413</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.16777629826897469</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>5.0420168067226892E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.58677685950413228</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4.0551500405515001E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>9.2250922509225092E-2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.13289036544850499</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.0354131534569982E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.30604982206405695</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F97ADD0-5FE6-4FAB-9E19-3E6B57F46CA5}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.6505190311418678E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.8967971530249115E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.8967971530249115E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.22660098522167488</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.12993762993762994</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.15611814345991562</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.33127572016460904</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17040816326530611</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.29487179487179488</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.38477366255144035</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4.6315789473684213E-2</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.15090909090909091</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2246740220661986</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.24154025670945156</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.5833333333333335E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
